--- a/Submission/Re-submission/reviews_table.xlsx
+++ b/Submission/Re-submission/reviews_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/amazondef/Submission/Re-submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henriquesposito/Documents/GitHub/amazondef/Submission/Re-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D00839-41DB-B24A-B30F-352580C1C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A38B74-5104-4F46-9BE8-E5DF0A803716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" activeTab="5" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
   <si>
     <t>Comment by reviewer</t>
   </si>
@@ -297,6 +297,69 @@
   </si>
   <si>
     <t>more descriptive, similar to what is 4.1 now.</t>
+  </si>
+  <si>
+    <t>Mention this as this might be both puzzling and expected...</t>
+  </si>
+  <si>
+    <t>Comments HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't agree but we need to state further that thius comes not only from the environment but also from the economic integration construction. </t>
+  </si>
+  <si>
+    <t>We can, intead of the models, add a similar for within Amazonian states, amazonian countries, non-Amazonian states, and other countries. As we had before. We then move models used to construct these to appendix, as we do with figure 6.</t>
+  </si>
+  <si>
+    <t>The implementation of the above should solve this issue as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe we can build somerthing like problem construction does not look much into setings while 2 level game overlooks about audiences… therefore we theorize this as a multi-level game where what audiences within states, regions, nations, and internationally want to hear (or what politicians expect matters for them) shapes sociocultural problem-constructions; and this is what we should about the Amazon. </t>
+  </si>
+  <si>
+    <t>BTW, I agree here, as I told you before, this is not a standard use of this in IR, though I do not think it is a big issue since we define it at the very top. However, I would say, just to avoid confusion, I would prefer if we can go without transationalism and just connect beter problem construction with the multi level game…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we add other Amazonian countries back into the analysis this also become part fo our concluding remarks = understand this in comparative ways in important to undertand the </t>
+  </si>
+  <si>
+    <t>Remove interest group in favor of international audiences (outside of Amazonian countries).</t>
+  </si>
+  <si>
+    <t>Change to general events that gathered national and international attention.</t>
+  </si>
+  <si>
+    <t>I amnot sure here either, but this might be a way of better closing the paper.</t>
+  </si>
+  <si>
+    <t>We need to get rid off what is not necessary and expand on what is, in my opinion. We do not need chosen vs. Pressing, perhaps only Bacci - on culture and constructions. Also, can we get rid of transnationalism and construct the thin-theory with Bacci + Putnan? This is also a matter of levels, we discuss/theorize/measure discourse but really talk/imply about outcomes/consequences, a thin-line we might need to better walk and justify at the setup and wrap at the conclusion (i.e. in conclusion, this helps us think about how discourse, policy, and outcomes for policy issues interact; whereas problem contructions in discourses might be a better unit of anilysis to study multi-faceted and multi-level policy issues to capture the various, and often paradoxal, policy outcomes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to talk back to literature in the analysis, as we had discussed previously. Once regions is brought back to analysis modelling, we can claim to somewhat better test mechanisms. Also, not a two level but a multi level. Finally, should we bring ideology as a control in the models? I am not sure we should, but if we don't we might always get this question (i.e. what about ideology?). </t>
+  </si>
+  <si>
+    <t>We might be able to extract information on venue, but I am not sure we should. We can compare models with distance to multinomial models by region and with IOs...</t>
+  </si>
+  <si>
+    <t>A different paper in my opinion, but perhapes we can use this in conclusion as a research avenue?</t>
+  </si>
+  <si>
+    <t>Let's clarify this but, in my opinion, we move all regression models to appendix and keep only figures. Because it is an unbalanced panel, should we use pooled OLS with time effects? Easy to justify. Otherwise, we might want to focus the effects on presidents rather than time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great, exactla what we had discussed already!!! We need to move past talking about the Amazon as an issue of environemntal policy! This is one of our great contributions and a way to keep the literature trend troughout (i.e. literature often focus on environemntal policy and aspects, but forgets that the amazon is a bio-socio-political policy object. </t>
+  </si>
+  <si>
+    <t>Again, a good point to bring at the conclusion, as a reserach avenue, alongside the google trends!</t>
+  </si>
+  <si>
+    <t>I know a bit about this literature and I am not sure this is pertinent unless we want to make an argument about why sovereigty increases after 2010? Expectations would be that sovereigty might increase outside or something… In reality, in this case, presidents go (or should go) fundraising for the Amazon internationally so they might just focus on what "fundin" audiences want to hear or are looking for justifications for.</t>
+  </si>
+  <si>
+    <t>Not sure I agree we need transnationalism…</t>
+  </si>
+  <si>
+    <t>I would keep the current structure, move models to appendix and add a visualization of the levels similar to the ones we have for distance…</t>
   </si>
 </sst>
 </file>
@@ -412,10 +475,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -737,9 +800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1733E3A-D6DE-EF46-8A36-10EAAE072C0D}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,9 +812,10 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,8 +831,11 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -784,8 +851,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -801,8 +871,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="F3" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -818,8 +891,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="F4" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -835,8 +911,11 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -852,8 +931,11 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -863,8 +945,11 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
@@ -877,8 +962,11 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -894,8 +982,11 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -908,8 +999,11 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -922,8 +1016,11 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -939,8 +1036,11 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="F12" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -953,8 +1053,11 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -970,8 +1073,11 @@
       <c r="E14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="F14" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -984,8 +1090,11 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>32</v>
       </c>
@@ -1001,8 +1110,11 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F16" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -1012,9 +1124,11 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1026,6 +1140,9 @@
       </c>
       <c r="D18" t="s">
         <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1044,7 +1161,9 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E17" xr:uid="{F1733E3A-D6DE-EF46-8A36-10EAAE072C0D}"/>
@@ -1056,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3762D34F-F6EA-8643-A46B-D56BEEEE0334}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1561,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468F27-AFFF-574F-A20A-65B416C5AE94}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1693,7 @@
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1597,7 +1716,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1608,7 +1727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.1</v>
       </c>
@@ -1618,12 +1737,12 @@
       <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -1633,10 +1752,13 @@
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1645,7 +1767,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1660,7 +1782,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1673,7 +1795,7 @@
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -1686,7 +1808,7 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -1695,7 +1817,7 @@
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -1705,12 +1827,12 @@
       <c r="C11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.2</v>
       </c>
@@ -1720,10 +1842,10 @@
       <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>69</v>
       </c>
@@ -1733,10 +1855,13 @@
       <c r="C13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>71</v>
       </c>
@@ -1746,10 +1871,10 @@
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>5</v>
       </c>

--- a/Submission/Re-submission/reviews_table.xlsx
+++ b/Submission/Re-submission/reviews_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henriquesposito/Documents/GitHub/amazondef/Submission/Re-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A38B74-5104-4F46-9BE8-E5DF0A803716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3E2BAA-5622-E349-9237-9CE1A22A1CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" activeTab="5" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
   <si>
     <t>Comment by reviewer</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Comments HS</t>
   </si>
   <si>
-    <t xml:space="preserve">Don't agree but we need to state further that thius comes not only from the environment but also from the economic integration construction. </t>
-  </si>
-  <si>
     <t>We can, intead of the models, add a similar for within Amazonian states, amazonian countries, non-Amazonian states, and other countries. As we had before. We then move models used to construct these to appendix, as we do with figure 6.</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>Change to general events that gathered national and international attention.</t>
   </si>
   <si>
-    <t>I amnot sure here either, but this might be a way of better closing the paper.</t>
-  </si>
-  <si>
     <t>We need to get rid off what is not necessary and expand on what is, in my opinion. We do not need chosen vs. Pressing, perhaps only Bacci - on culture and constructions. Also, can we get rid of transnationalism and construct the thin-theory with Bacci + Putnan? This is also a matter of levels, we discuss/theorize/measure discourse but really talk/imply about outcomes/consequences, a thin-line we might need to better walk and justify at the setup and wrap at the conclusion (i.e. in conclusion, this helps us think about how discourse, policy, and outcomes for policy issues interact; whereas problem contructions in discourses might be a better unit of anilysis to study multi-faceted and multi-level policy issues to capture the various, and often paradoxal, policy outcomes.</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>Let's clarify this but, in my opinion, we move all regression models to appendix and keep only figures. Because it is an unbalanced panel, should we use pooled OLS with time effects? Easy to justify. Otherwise, we might want to focus the effects on presidents rather than time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Great, exactla what we had discussed already!!! We need to move past talking about the Amazon as an issue of environemntal policy! This is one of our great contributions and a way to keep the literature trend troughout (i.e. literature often focus on environemntal policy and aspects, but forgets that the amazon is a bio-socio-political policy object. </t>
-  </si>
-  <si>
     <t>Again, a good point to bring at the conclusion, as a reserach avenue, alongside the google trends!</t>
   </si>
   <si>
@@ -359,14 +350,32 @@
     <t>Not sure I agree we need transnationalism…</t>
   </si>
   <si>
-    <t>I would keep the current structure, move models to appendix and add a visualization of the levels similar to the ones we have for distance…</t>
+    <t>Comments hs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't agree also, but I think we do need to state further that this comes not only from the environment but also from the economic integration construction. </t>
+  </si>
+  <si>
+    <t>Comment hs</t>
+  </si>
+  <si>
+    <t>comment hs</t>
+  </si>
+  <si>
+    <t>I am not sure here either, but this might be a way of better closing the paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great, exactly what we had discussed already!!! We need to move past talking about the Amazon as an issue of environemntal policy! This is one of our great contributions and a way to keep the literature trend troughout (i.e. literature often focus on environemntal policy and aspects, but forgets that the amazon is a bio-socio-political policy object. </t>
+  </si>
+  <si>
+    <t>I would generally keep the current structure, move models to appendix and add a visualization of the levels similar to the ones we have for distance…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +396,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -421,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -483,6 +499,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,8 +820,8 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -872,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -892,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -912,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -932,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -946,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -963,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -983,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1017,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="289" x14ac:dyDescent="0.2">
@@ -1037,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="221" x14ac:dyDescent="0.2">
@@ -1054,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1074,7 +1093,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -1091,7 +1110,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1111,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -1125,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -1142,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1162,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3762D34F-F6EA-8643-A46B-D56BEEEE0334}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,9 +1204,10 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="53.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,8 +1229,11 @@
       <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="H1" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -1229,8 +1252,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="H2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1252,8 +1278,11 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -1275,8 +1304,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -1295,8 +1327,11 @@
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1315,8 +1350,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1337,6 +1375,9 @@
       </c>
       <c r="G7">
         <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1354,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9D0CD0-C97F-9A43-B30C-0033EA6A0177}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,9 +1406,10 @@
     <col min="1" max="1" width="79.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,8 +1428,11 @@
       <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="G1" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1406,8 +1451,11 @@
       <c r="F2" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="G2" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1426,8 +1474,11 @@
       <c r="F3" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -1446,8 +1497,11 @@
       <c r="F4" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1466,8 +1520,11 @@
       <c r="F5" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1485,6 +1542,9 @@
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1494,19 +1554,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDB5A21-F746-664C-9D59-280CDEA418C6}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="73.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,8 +1586,11 @@
       <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="G1" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1545,8 +1609,11 @@
       <c r="F2" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1562,8 +1629,11 @@
       <c r="F3" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1578,6 +1648,9 @@
       </c>
       <c r="F4" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1587,19 +1660,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94F04F1-DBE6-1A4B-9E94-65A7F7138AC8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="73.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,10 +1693,13 @@
         <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1641,8 +1718,11 @@
       <c r="F2" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="G2" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -1655,8 +1735,11 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1671,6 +1754,9 @@
       </c>
       <c r="F4" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1682,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468F27-AFFF-574F-A20A-65B416C5AE94}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1841,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -1858,7 +1944,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">

--- a/Submission/Re-submission/reviews_table.xlsx
+++ b/Submission/Re-submission/reviews_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henriquesposito/Documents/GitHub/amazondef/Submission/Re-submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/amazondef/Submission/Re-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3E2BAA-5622-E349-9237-9CE1A22A1CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476878A4-C249-914D-A190-DF156C3ABB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" activeTab="5" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
   <si>
     <t>Comment by reviewer</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Section</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Do we agree?</t>
   </si>
   <si>
@@ -230,45 +227,21 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Transnationalism and discourse</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>Policy adoption, implementation, and discourse</t>
-  </si>
-  <si>
     <t>more nuanced review of transnationalism as indicated by reviewer 2 (comment theory, number 1).</t>
   </si>
   <si>
-    <t>more nuanced review of policy-cycles and discourse as indicated by reviewer 1 (comment theory, number 2).</t>
-  </si>
-  <si>
     <t>same</t>
   </si>
   <si>
     <t>same, but we introduce the model more generally and discuss how levels and deforestation are proxies of section 2.1 and 2.2 (and the limitations of them as proxies)</t>
   </si>
   <si>
-    <t>Rise and Fall of the Amazon</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>new model with all</t>
-  </si>
-  <si>
-    <t>4.2.2</t>
-  </si>
-  <si>
     <t>PCs in levels</t>
   </si>
   <si>
-    <t>new section? Or maybe there is a way of adapting 4.1 to tell a story about trasnationalism -&gt; discourse?</t>
-  </si>
-  <si>
     <t>What's in the section</t>
   </si>
   <si>
@@ -281,24 +254,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>not much to change here.</t>
-  </si>
-  <si>
     <t>One sub-chapter per main independent variable and its connection to discourse; contribution is to tell a coherent story about how transnationalism and outcomes shape discourse.</t>
   </si>
   <si>
-    <t>This is the trickiest part as we can very quickly entertain a long discussion on each, the hard part is 2.1 and better developing the empirical consequences of it as we will not be able to test it properly.</t>
-  </si>
-  <si>
     <t>same, with correction on environment conservation (comment theory, number 6).</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the trickiest part, ideally we would start with the model and then unpack each independent variable in a sub-section. But I do not see how exactly 4.1 fits in. </t>
-  </si>
-  <si>
-    <t>more descriptive, similar to what is 4.1 now.</t>
-  </si>
-  <si>
     <t>Mention this as this might be both puzzling and expected...</t>
   </si>
   <si>
@@ -347,9 +308,6 @@
     <t>I know a bit about this literature and I am not sure this is pertinent unless we want to make an argument about why sovereigty increases after 2010? Expectations would be that sovereigty might increase outside or something… In reality, in this case, presidents go (or should go) fundraising for the Amazon internationally so they might just focus on what "fundin" audiences want to hear or are looking for justifications for.</t>
   </si>
   <si>
-    <t>Not sure I agree we need transnationalism…</t>
-  </si>
-  <si>
     <t>Comments hs</t>
   </si>
   <si>
@@ -368,7 +326,31 @@
     <t xml:space="preserve">Great, exactly what we had discussed already!!! We need to move past talking about the Amazon as an issue of environemntal policy! This is one of our great contributions and a way to keep the literature trend troughout (i.e. literature often focus on environemntal policy and aspects, but forgets that the amazon is a bio-socio-political policy object. </t>
   </si>
   <si>
-    <t>I would generally keep the current structure, move models to appendix and add a visualization of the levels similar to the ones we have for distance…</t>
+    <t>Bacchi</t>
+  </si>
+  <si>
+    <t>Transnationalism -&gt; discourse</t>
+  </si>
+  <si>
+    <t>policy outcomes -&gt; presidential speeches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endogeneity; siloed scholarship  of policy objects. </t>
+  </si>
+  <si>
+    <t>Problem-constructions (beginning or end)</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>new model: five separate logits (PC vs all rest; and amazonian discourse or not), two main i.Vs (1) levels (outside Brazil), (inside Brazil but outside the Amazon), (Brasilia), (Amazonian states and countries as reference category), controls (party for ideology; inflation for economy; election year).</t>
+  </si>
+  <si>
+    <t>something close to 4.1 + discussion of justifications.</t>
+  </si>
+  <si>
+    <t>future avenue</t>
   </si>
 </sst>
 </file>
@@ -420,12 +402,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -433,11 +415,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -491,17 +535,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +918,8 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,343 +943,343 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1194,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3762D34F-F6EA-8643-A46B-D56BEEEE0334}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,7 +1302,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="53.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1218,166 +1316,166 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>93</v>
+      <c r="H2" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
+      <c r="H3" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>94</v>
+      <c r="H4" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>91</v>
+      <c r="H6" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>102</v>
+      <c r="H7" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1496,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1504,7 @@
     <col min="1" max="1" width="79.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1420,131 +1518,131 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1557,14 +1655,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="73.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1578,79 +1676,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>104</v>
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1660,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94F04F1-DBE6-1A4B-9E94-65A7F7138AC8}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1771,7 @@
     <col min="7" max="7" width="34.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,79 +1782,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="G3" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1766,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468F27-AFFF-574F-A20A-65B416C5AE94}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1779,205 +1877,190 @@
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.1</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3.1</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3.2</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3.3</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>4</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4.2</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>5</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D11:E14"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="D4:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A13:A14" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Submission/Re-submission/reviews_table.xlsx
+++ b/Submission/Re-submission/reviews_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/amazondef/Submission/Re-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476878A4-C249-914D-A190-DF156C3ABB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0568268-86AF-FC4C-92B6-2624F8EF2C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="5" xr2:uid="{6CFD92DF-9600-EC4C-BBE6-9FD001CE7D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>policy outcomes -&gt; presidential speeches</t>
   </si>
   <si>
-    <t xml:space="preserve">endogeneity; siloed scholarship  of policy objects. </t>
-  </si>
-  <si>
     <t>Problem-constructions (beginning or end)</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>future avenue</t>
+  </si>
+  <si>
+    <t>endogeneity; siloed scholarship  of policy objects. ; role of the president.</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>83</v>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1932,7 +1932,7 @@
         <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="40"/>
@@ -1942,7 +1942,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>93</v>
@@ -2015,7 +2015,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
@@ -2028,14 +2028,14 @@
         <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>57</v>
